--- a/Tools/本地数据表/DTRole.xlsx
+++ b/Tools/本地数据表/DTRole.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\StudyFramework\Tools\本地数据表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="20475" windowHeight="8070"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>int</t>
   </si>
@@ -53,18 +58,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>天山</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
+    <t>峨眉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丐帮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -76,15 +93,22 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,7 +125,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -109,6 +133,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -120,6 +150,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -168,7 +201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,7 +236,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,11 +445,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -452,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -470,31 +503,59 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>100001</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <v>100001</v>
+      <c r="A4" s="3">
+        <v>101</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
+        <v>101</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>100002</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <v>100002</v>
+      <c r="A5" s="3">
+        <v>102</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>102</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>103</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3">
+        <v>103</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>104</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3">
+        <v>104</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
